--- a/クリックポスト発送情報/20200824231619/英子日本发货表格8.24.xlsx
+++ b/クリックポスト発送情報/20200824231619/英子日本发货表格8.24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628577594304</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628577594293</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628577594282</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628577594271</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628577594260</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628577594256</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -187,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -306,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -379,19 +403,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1423,10 +1450,12 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="16"/>
@@ -1436,22 +1465,24 @@
       <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="28"/>
+      <c r="K3" s="29" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -1459,14 +1490,16 @@
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="K4" s="29" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="16"/>
@@ -1476,22 +1509,24 @@
       <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="29" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
         <v>31</v>
@@ -1499,11 +1534,13 @@
       <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="K6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="K6" s="29" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -1528,7 +1565,9 @@
       <c r="I7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="29" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="18" t="s">
@@ -1553,7 +1592,7 @@
       <c r="I8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="10" spans="1:181" ht="121.95" customHeight="1"/>
